--- a/ImportContractNewData.xlsx
+++ b/ImportContractNewData.xlsx
@@ -5686,7 +5686,7 @@
   <sheetPr/>
   <dimension ref="A1:AE237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A200" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AE237"/>
     </sheetView>
   </sheetViews>
